--- a/Income/WDC_inc.xlsx
+++ b/Income/WDC_inc.xlsx
@@ -2107,10 +2107,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.253</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2479</v>
@@ -2236,10 +2234,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0495</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0393</v>
@@ -2365,10 +2361,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0317</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0192</v>
@@ -2494,10 +2488,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0213</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0102</v>
@@ -2623,10 +2615,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0099</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0137</v>
@@ -3643,10 +3633,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.1377</v>
@@ -3772,10 +3760,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.0661</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.0675</v>
